--- a/api/svg/theme.xlsx
+++ b/api/svg/theme.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>key</t>
   </si>
@@ -60,10 +60,10 @@
     <t>Searcch</t>
   </si>
   <si>
-    <t>CS F</t>
-  </si>
-  <si>
-    <t>SS  CS  F</t>
+    <t>CS+ F</t>
+  </si>
+  <si>
+    <t>SS  CS+  F</t>
   </si>
   <si>
     <t>File</t>
@@ -78,7 +78,21 @@
     <t>Copy/Paste</t>
   </si>
   <si>
-    <t>CS CV</t>
+    <t>CS+ CV</t>
+  </si>
+  <si>
+    <r>
+      <t>SA+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↓↑</t>
+    </r>
   </si>
   <si>
     <t>Settings</t>
@@ -111,7 +125,7 @@
     <t>C N</t>
   </si>
   <si>
-    <t>CS  T/N</t>
+    <t>CS+  T/N</t>
   </si>
   <si>
     <t>C  T</t>
@@ -123,7 +137,7 @@
     <t>Close</t>
   </si>
   <si>
-    <t>CS W</t>
+    <t>CS+ W</t>
   </si>
   <si>
     <t>C  W</t>
@@ -135,19 +149,34 @@
     <t xml:space="preserve">C F4 </t>
   </si>
   <si>
-    <t>Sidebar</t>
+    <t>Sidebar/Navijator bar</t>
   </si>
   <si>
     <t>C B/J</t>
   </si>
   <si>
+    <t>CS ；</t>
+  </si>
+  <si>
     <t>C J</t>
   </si>
   <si>
+    <t>Implimentions</t>
+  </si>
+  <si>
+    <t>C+F12</t>
+  </si>
+  <si>
     <t>Split</t>
   </si>
   <si>
-    <t>CS s/d</t>
+    <t>CA +→(split)</t>
+  </si>
+  <si>
+    <t>C \</t>
+  </si>
+  <si>
+    <t>CS+ s/d</t>
   </si>
   <si>
     <t>C tab</t>
@@ -156,7 +185,7 @@
     <t>Outline</t>
   </si>
   <si>
-    <t>CS G K</t>
+    <t>CS+ G K</t>
   </si>
   <si>
     <t>C  K</t>
@@ -165,13 +194,13 @@
     <t xml:space="preserve"> Expoler</t>
   </si>
   <si>
-    <t>CS E</t>
+    <t>CS+ E</t>
   </si>
   <si>
     <t>Move</t>
   </si>
   <si>
-    <t>CS l/r</t>
+    <t>CS+ l/r</t>
   </si>
   <si>
     <t>Switch</t>
@@ -186,7 +215,25 @@
     <t>A  E X</t>
   </si>
   <si>
-    <t>CS ，</t>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>CS+D</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>CS+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priview</t>
+  </si>
+  <si>
+    <t>CS+V</t>
+  </si>
+  <si>
+    <t>CS+ ，</t>
   </si>
   <si>
     <t>Terminal</t>
@@ -195,13 +242,13 @@
     <t>New</t>
   </si>
   <si>
-    <t>CS/C `</t>
+    <t>CS+/C ` || CJ</t>
   </si>
   <si>
     <t>C `</t>
   </si>
   <si>
-    <t>CS 5</t>
+    <t>CS+ 5</t>
   </si>
   <si>
     <t xml:space="preserve">C W/D </t>
@@ -216,21 +263,54 @@
     <t>Word/paragph</t>
   </si>
   <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>CS+  K</t>
+  </si>
+  <si>
     <t>C backspace/delete</t>
   </si>
   <si>
-    <t xml:space="preserve"> CS  K/T/Q</t>
+    <t xml:space="preserve"> CS+  K/T/Q</t>
   </si>
   <si>
     <t>List</t>
   </si>
   <si>
+    <r>
+      <t>CS +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(check)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">  C  G/H</t>
   </si>
   <si>
     <t>Task</t>
   </si>
   <si>
+    <t>CA +↓(multi)</t>
+  </si>
+  <si>
     <t>CA  X</t>
   </si>
   <si>
@@ -240,6 +320,18 @@
     <t>C L</t>
   </si>
   <si>
+    <t>A+↓↑</t>
+  </si>
+  <si>
+    <t>Folding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS </t>
+  </si>
+  <si>
+    <t>CS [ ]</t>
+  </si>
+  <si>
     <t>Cursor</t>
   </si>
   <si>
@@ -250,6 +342,12 @@
   </si>
   <si>
     <t>CA  l/r/up/down</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>C G：line</t>
   </si>
 </sst>
 </file>
@@ -262,7 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +519,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +542,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +935,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,16 +959,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -861,89 +977,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,12 +1069,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,14 +1099,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1511,38 +1645,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.3636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5454545454545" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.2727272727273" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.1818181818182" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.8181818181818" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.0909090909091" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="3"/>
+    <col min="3" max="3" width="14.5454545454545" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.2727272727273" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.1818181818182" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.8181818181818" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.0909090909091" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1559,342 +1693,470 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="16"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="9" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E13" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12" t="s">
+      <c r="F13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="13" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12" t="s">
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A16" s="12"/>
+      <c r="B16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10"/>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="10"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12"/>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="H23" s="3" t="s">
+      <c r="D21" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="E23" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="10"/>
+    <row r="24" spans="1:8">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="C28" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="12"/>
+      <c r="H28" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10"/>
-      <c r="B33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-      <c r="B34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12"/>
+      <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="12"/>
+      <c r="C34" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>70</v>
+      <c r="A35" s="12"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="12"/>
+      <c r="B38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12"/>
+      <c r="B39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="16"/>
+      <c r="C40" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="14"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="14"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14"/>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="14"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="14"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="14"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="14"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="14"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A45:A53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
